--- a/ListOfMarks.xlsx
+++ b/ListOfMarks.xlsx
@@ -9,14 +9,23 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" firstSheet="4" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="АК1-21" sheetId="1" r:id="rId1"/>
     <sheet name="АК1-22" sheetId="3" r:id="rId2"/>
-    <sheet name="АК2-11" sheetId="4" r:id="rId3"/>
-    <sheet name="АК3-11Б" sheetId="5" r:id="rId4"/>
-    <sheet name="АК4-11" sheetId="6" r:id="rId5"/>
+    <sheet name="АК2-21" sheetId="4" r:id="rId3"/>
+    <sheet name="АК3-21Б" sheetId="5" r:id="rId4"/>
+    <sheet name="АК4-21" sheetId="6" r:id="rId5"/>
+    <sheet name="АК1-41" sheetId="8" r:id="rId6"/>
+    <sheet name="АК1-42" sheetId="9" r:id="rId7"/>
+    <sheet name="АК2-41" sheetId="10" r:id="rId8"/>
+    <sheet name="АК3-41Б" sheetId="11" r:id="rId9"/>
+    <sheet name="АК4-41" sheetId="12" r:id="rId10"/>
+    <sheet name="АК1-61" sheetId="7" r:id="rId11"/>
+    <sheet name="АК2-61" sheetId="13" r:id="rId12"/>
+    <sheet name="АК2-62" sheetId="14" r:id="rId13"/>
+    <sheet name="АК3-61Б" sheetId="15" r:id="rId14"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2771" uniqueCount="450">
   <si>
     <t>№</t>
   </si>
@@ -601,6 +610,783 @@
   </si>
   <si>
     <t>Смоляный Андрей Геннадьевич</t>
+  </si>
+  <si>
+    <t>Детали машин. Курсовой проект</t>
+  </si>
+  <si>
+    <t>Гидрогазоаэродинамика</t>
+  </si>
+  <si>
+    <t>Строительная механика</t>
+  </si>
+  <si>
+    <t>Технология конструкционных материалов</t>
+  </si>
+  <si>
+    <t>Уравнения математической физики</t>
+  </si>
+  <si>
+    <t>Экология</t>
+  </si>
+  <si>
+    <t>Электротехника и электроника</t>
+  </si>
+  <si>
+    <t>Баллистическое проектирование автоматических космических аппаратов</t>
+  </si>
+  <si>
+    <t>Двигательные установки</t>
+  </si>
+  <si>
+    <t>20В010</t>
+  </si>
+  <si>
+    <t>20В055</t>
+  </si>
+  <si>
+    <t>20В017</t>
+  </si>
+  <si>
+    <t>20В072</t>
+  </si>
+  <si>
+    <t>18В006</t>
+  </si>
+  <si>
+    <t>20В029</t>
+  </si>
+  <si>
+    <t>20В031</t>
+  </si>
+  <si>
+    <t>20В058</t>
+  </si>
+  <si>
+    <t>20В034</t>
+  </si>
+  <si>
+    <t>20В060</t>
+  </si>
+  <si>
+    <t>20В037</t>
+  </si>
+  <si>
+    <t>20В061</t>
+  </si>
+  <si>
+    <t>20В038</t>
+  </si>
+  <si>
+    <t>20В062</t>
+  </si>
+  <si>
+    <t>20В040</t>
+  </si>
+  <si>
+    <t>Ершов Михаил Владимирович</t>
+  </si>
+  <si>
+    <t>Казарская Дарья Андреевна</t>
+  </si>
+  <si>
+    <t>Ковылина Мария Арсеньевна</t>
+  </si>
+  <si>
+    <t>Коновалов Тимур Сергеевич</t>
+  </si>
+  <si>
+    <t>Лобахин Егор Сергеевич</t>
+  </si>
+  <si>
+    <t>Морозов Владимир Олегович</t>
+  </si>
+  <si>
+    <t>Политов Дмитрий Павлович</t>
+  </si>
+  <si>
+    <t>Романцов Роман Валерьевич</t>
+  </si>
+  <si>
+    <t>Смирнов Калислав Андреевич</t>
+  </si>
+  <si>
+    <t>Федорова Александра Алексеевна</t>
+  </si>
+  <si>
+    <t>Филиппова Полина Ивановна</t>
+  </si>
+  <si>
+    <t>Харьков Станислав Вадимович</t>
+  </si>
+  <si>
+    <t>Ходырев Григорий Андреевич</t>
+  </si>
+  <si>
+    <t>Шакирова Жамиля Хусанжановна</t>
+  </si>
+  <si>
+    <t>Шиповалов Матвей Витальевич</t>
+  </si>
+  <si>
+    <t>Теория механизмов и машин</t>
+  </si>
+  <si>
+    <t>Теория функций комплексного переменного и операционное исчисление</t>
+  </si>
+  <si>
+    <t>Сопротивление материалов</t>
+  </si>
+  <si>
+    <t>Метрология, стандартизация и сертификация</t>
+  </si>
+  <si>
+    <t>Абызова Алина Алиевна</t>
+  </si>
+  <si>
+    <t>21В018</t>
+  </si>
+  <si>
+    <t>Беркович Семён Владимирович</t>
+  </si>
+  <si>
+    <t>21В035</t>
+  </si>
+  <si>
+    <t>Данилова Анастасия Алексеевна</t>
+  </si>
+  <si>
+    <t>21В065</t>
+  </si>
+  <si>
+    <t>Загумённая Кристина Дмитриевна</t>
+  </si>
+  <si>
+    <t>21В068</t>
+  </si>
+  <si>
+    <t>Иванов Алексей Владимирович</t>
+  </si>
+  <si>
+    <t>21В022</t>
+  </si>
+  <si>
+    <t>Катышев Дмитрий Андреевич</t>
+  </si>
+  <si>
+    <t>21В023</t>
+  </si>
+  <si>
+    <t>Киянова Наталья Сергеевна</t>
+  </si>
+  <si>
+    <t>21В069</t>
+  </si>
+  <si>
+    <t>Коренева Анна Витальевна</t>
+  </si>
+  <si>
+    <t>21В072</t>
+  </si>
+  <si>
+    <t>Маркелов Дмитрий Сергеевич</t>
+  </si>
+  <si>
+    <t>20В024</t>
+  </si>
+  <si>
+    <t>Мурашов Сергей Евгеньевич</t>
+  </si>
+  <si>
+    <t>21В076</t>
+  </si>
+  <si>
+    <t>Найденова Юлия Александровна</t>
+  </si>
+  <si>
+    <t>21В027</t>
+  </si>
+  <si>
+    <t>Рекунов Иван Сергеевич</t>
+  </si>
+  <si>
+    <t>21В028</t>
+  </si>
+  <si>
+    <t>Сердюков Никита Николаевич</t>
+  </si>
+  <si>
+    <t>21В030</t>
+  </si>
+  <si>
+    <t>Соболев Артем Александрович</t>
+  </si>
+  <si>
+    <t>21В032</t>
+  </si>
+  <si>
+    <t>Тагиров Егор Павлович</t>
+  </si>
+  <si>
+    <t>21В079</t>
+  </si>
+  <si>
+    <t>Черняев Иван Константинович</t>
+  </si>
+  <si>
+    <t>21В080</t>
+  </si>
+  <si>
+    <t>Чиханов Михаил Федорович</t>
+  </si>
+  <si>
+    <t>21В033</t>
+  </si>
+  <si>
+    <t>Шмаков Иван Денисович</t>
+  </si>
+  <si>
+    <t>21В034</t>
+  </si>
+  <si>
+    <t>Ахматова Елизавета Олеговна</t>
+  </si>
+  <si>
+    <t>21В019</t>
+  </si>
+  <si>
+    <t>Весельчаков Иван Александрович</t>
+  </si>
+  <si>
+    <t>21В020</t>
+  </si>
+  <si>
+    <t>Викторова Ксения Артемовна</t>
+  </si>
+  <si>
+    <t>21В021</t>
+  </si>
+  <si>
+    <t>Гисс Владислав Валерьевич</t>
+  </si>
+  <si>
+    <t>21В064</t>
+  </si>
+  <si>
+    <t>Кондратюкин Вячеслав Владимирович</t>
+  </si>
+  <si>
+    <t>21В070</t>
+  </si>
+  <si>
+    <t>Коротченко Алиса Максимовна</t>
+  </si>
+  <si>
+    <t>21В073</t>
+  </si>
+  <si>
+    <t>Кутьенков Тимофей Владимирович</t>
+  </si>
+  <si>
+    <t>21В024</t>
+  </si>
+  <si>
+    <t>Лаврентьев Иван Алексеевич</t>
+  </si>
+  <si>
+    <t>21В025</t>
+  </si>
+  <si>
+    <t>Левинский Егор Васильевич</t>
+  </si>
+  <si>
+    <t>21В074</t>
+  </si>
+  <si>
+    <t>Михайлова Валерия Игоревна</t>
+  </si>
+  <si>
+    <t>21В026</t>
+  </si>
+  <si>
+    <t>Прудкая Софья Филипповна</t>
+  </si>
+  <si>
+    <t>21В077</t>
+  </si>
+  <si>
+    <t>Сергеева Елена Сергеевна</t>
+  </si>
+  <si>
+    <t>21В029</t>
+  </si>
+  <si>
+    <t>Шафеева Зарина Шамилевна</t>
+  </si>
+  <si>
+    <t>21В082</t>
+  </si>
+  <si>
+    <t>Шевцов Лев Михайлович</t>
+  </si>
+  <si>
+    <t>21В083</t>
+  </si>
+  <si>
+    <t>Ярков Евгений Романович</t>
+  </si>
+  <si>
+    <t>21В084</t>
+  </si>
+  <si>
+    <t>Барков Николай Александрович</t>
+  </si>
+  <si>
+    <t>21В050</t>
+  </si>
+  <si>
+    <t>Булдаков Иван Денисович</t>
+  </si>
+  <si>
+    <t>21В013</t>
+  </si>
+  <si>
+    <t>Вавилова Анастасия Андреевна</t>
+  </si>
+  <si>
+    <t>21В051</t>
+  </si>
+  <si>
+    <t>Егоркин Максим Дмитриевич</t>
+  </si>
+  <si>
+    <t>21В052</t>
+  </si>
+  <si>
+    <t>Ермоленко Виктор Геннадьевич</t>
+  </si>
+  <si>
+    <t>21В053</t>
+  </si>
+  <si>
+    <t>Иняков Максим Сергеевич</t>
+  </si>
+  <si>
+    <t>21В014</t>
+  </si>
+  <si>
+    <t>Красильников Олег Максимович</t>
+  </si>
+  <si>
+    <t>21В015</t>
+  </si>
+  <si>
+    <t>Мурин Игорь Игоревич</t>
+  </si>
+  <si>
+    <t>21В057</t>
+  </si>
+  <si>
+    <t>Пустовалов Илья Романович</t>
+  </si>
+  <si>
+    <t>21В016</t>
+  </si>
+  <si>
+    <t>Тепеев Дмитрий Николаевич</t>
+  </si>
+  <si>
+    <t>21В062</t>
+  </si>
+  <si>
+    <t>Царёв Вадим Романович</t>
+  </si>
+  <si>
+    <t>21В017</t>
+  </si>
+  <si>
+    <t>Дифференциальные уравнения</t>
+  </si>
+  <si>
+    <t>Политология</t>
+  </si>
+  <si>
+    <t>Теория вероятностей и математическая статистика</t>
+  </si>
+  <si>
+    <t>Дифференциальная геометрия и основы тензорного исчисления</t>
+  </si>
+  <si>
+    <t>Функциональный анализ и интегральные уравнения</t>
+  </si>
+  <si>
+    <t>21В036</t>
+  </si>
+  <si>
+    <t>21В097</t>
+  </si>
+  <si>
+    <t>21В037</t>
+  </si>
+  <si>
+    <t>21В001</t>
+  </si>
+  <si>
+    <t>21В003</t>
+  </si>
+  <si>
+    <t>21В043</t>
+  </si>
+  <si>
+    <t>21В045</t>
+  </si>
+  <si>
+    <t>21В047</t>
+  </si>
+  <si>
+    <t>21В048</t>
+  </si>
+  <si>
+    <t>Ванюшкин Степан Дмитриевич</t>
+  </si>
+  <si>
+    <t>Дустов Максим Муртазоевич</t>
+  </si>
+  <si>
+    <t>Ефремов Максим Валерьевич</t>
+  </si>
+  <si>
+    <t>Колесников Марк Александрович</t>
+  </si>
+  <si>
+    <t>Лобачев Валерий Павлович</t>
+  </si>
+  <si>
+    <t>Решетникова Ангелина Леонидовна</t>
+  </si>
+  <si>
+    <t>Симонов Никита Сергеевич</t>
+  </si>
+  <si>
+    <t>Хамнуев Кирилл Вадимович</t>
+  </si>
+  <si>
+    <t>Шерман Елизавета Михайловна</t>
+  </si>
+  <si>
+    <t>Основы конструирования приборов</t>
+  </si>
+  <si>
+    <t>Правоведение</t>
+  </si>
+  <si>
+    <t>Телекоммуникации</t>
+  </si>
+  <si>
+    <t>Учебный практикум</t>
+  </si>
+  <si>
+    <t>Электротехника</t>
+  </si>
+  <si>
+    <t>21В085</t>
+  </si>
+  <si>
+    <t>21В086</t>
+  </si>
+  <si>
+    <t>21В006</t>
+  </si>
+  <si>
+    <t>21В007</t>
+  </si>
+  <si>
+    <t>21В089</t>
+  </si>
+  <si>
+    <t>21В090</t>
+  </si>
+  <si>
+    <t>21В096</t>
+  </si>
+  <si>
+    <t>21В091</t>
+  </si>
+  <si>
+    <t>21В092</t>
+  </si>
+  <si>
+    <t>21В009</t>
+  </si>
+  <si>
+    <t>21В010</t>
+  </si>
+  <si>
+    <t>21В011</t>
+  </si>
+  <si>
+    <t>21В095</t>
+  </si>
+  <si>
+    <t>Артемова Мария Васильевна</t>
+  </si>
+  <si>
+    <t>Бондарь Анна Артемовна</t>
+  </si>
+  <si>
+    <t>Даняев Егор Михайлович</t>
+  </si>
+  <si>
+    <t>Кириллов Илья Владимирович</t>
+  </si>
+  <si>
+    <t>Люлькина Варвара Сергеевна</t>
+  </si>
+  <si>
+    <t>Махмудов Ислам Рамазанович</t>
+  </si>
+  <si>
+    <t>Ракутин Димитрий Антонович</t>
+  </si>
+  <si>
+    <t>Роденко Кирилл Андреевич</t>
+  </si>
+  <si>
+    <t>Рымарчук Вероника Олеговна</t>
+  </si>
+  <si>
+    <t>Смирнов Филипп Александрович</t>
+  </si>
+  <si>
+    <t>Тепляков Александр Александрович</t>
+  </si>
+  <si>
+    <t>Филипов Кирилл Викторович</t>
+  </si>
+  <si>
+    <t>Чернявский Владислав Алексеевич</t>
+  </si>
+  <si>
+    <t>Подводный стартовый участок крылатых ракет</t>
+  </si>
+  <si>
+    <t>20В069</t>
+  </si>
+  <si>
+    <t>20В007</t>
+  </si>
+  <si>
+    <t>20В013</t>
+  </si>
+  <si>
+    <t>20В022</t>
+  </si>
+  <si>
+    <t>20В027</t>
+  </si>
+  <si>
+    <t>20В026</t>
+  </si>
+  <si>
+    <t>20В057</t>
+  </si>
+  <si>
+    <t>19В034</t>
+  </si>
+  <si>
+    <t>19В042</t>
+  </si>
+  <si>
+    <t>19В043</t>
+  </si>
+  <si>
+    <t>20В087</t>
+  </si>
+  <si>
+    <t>20В041</t>
+  </si>
+  <si>
+    <t>Горяев Максим Андреевич</t>
+  </si>
+  <si>
+    <t>Гречихин Илья Михайлович</t>
+  </si>
+  <si>
+    <t>Ибрагимов Георгий Ильич</t>
+  </si>
+  <si>
+    <t>Курпеев Сергей Анатольевич</t>
+  </si>
+  <si>
+    <t>Максимова Полина Геннадьевна</t>
+  </si>
+  <si>
+    <t>Меркулова Марина Юрьевна</t>
+  </si>
+  <si>
+    <t>Новосёлова Наталия Александровна</t>
+  </si>
+  <si>
+    <t>Панин Андрей Александрович</t>
+  </si>
+  <si>
+    <t>Толмачев Илья Юрьевич</t>
+  </si>
+  <si>
+    <t>Фролов Михаил Сергеевич</t>
+  </si>
+  <si>
+    <t>Шитов Даниил Константинович</t>
+  </si>
+  <si>
+    <t>Шкодина Елена Сергеевна</t>
+  </si>
+  <si>
+    <t>20В066</t>
+  </si>
+  <si>
+    <t>20В067</t>
+  </si>
+  <si>
+    <t>20В005</t>
+  </si>
+  <si>
+    <t>20В006</t>
+  </si>
+  <si>
+    <t>20В012</t>
+  </si>
+  <si>
+    <t>20В014</t>
+  </si>
+  <si>
+    <t>20В019</t>
+  </si>
+  <si>
+    <t>20В020</t>
+  </si>
+  <si>
+    <t>20В021</t>
+  </si>
+  <si>
+    <t>20В028</t>
+  </si>
+  <si>
+    <t>19В036</t>
+  </si>
+  <si>
+    <t>20В059</t>
+  </si>
+  <si>
+    <t>20В036</t>
+  </si>
+  <si>
+    <t>Анисимова Ольвия Владимировна</t>
+  </si>
+  <si>
+    <t>Баранова Анна Сергеевна</t>
+  </si>
+  <si>
+    <t>Гаврилова Ольга Олеговна</t>
+  </si>
+  <si>
+    <t>Говорченко Александр Владимирович</t>
+  </si>
+  <si>
+    <t>Зелянин Дмитрий Сергеевич</t>
+  </si>
+  <si>
+    <t>Камшилов Вячеслав Михайлович</t>
+  </si>
+  <si>
+    <t>Корнеева Юлия Алексеевна</t>
+  </si>
+  <si>
+    <t>Крупянов Егор Эдуардович</t>
+  </si>
+  <si>
+    <t>Кузнецов Роман Игоревич</t>
+  </si>
+  <si>
+    <t>Михеев Данила Владимирович</t>
+  </si>
+  <si>
+    <t>Петров Максим Михайлович</t>
+  </si>
+  <si>
+    <t>Савенко Георгий Олегович</t>
+  </si>
+  <si>
+    <t>Сухоставский Алексей Вячеславович</t>
+  </si>
+  <si>
+    <t>Численные методы</t>
+  </si>
+  <si>
+    <t>Геометрическое моделирование</t>
+  </si>
+  <si>
+    <t>Теория случайных процессов</t>
+  </si>
+  <si>
+    <t>Философия</t>
+  </si>
+  <si>
+    <t>Методы оптимизации и вариационное исчисление</t>
+  </si>
+  <si>
+    <t>Механика сплошной среды</t>
+  </si>
+  <si>
+    <t>Основы сеточных методов</t>
+  </si>
+  <si>
+    <t>20В002</t>
+  </si>
+  <si>
+    <t>19В074</t>
+  </si>
+  <si>
+    <t>19В078</t>
+  </si>
+  <si>
+    <t>20В018</t>
+  </si>
+  <si>
+    <t>20В074</t>
+  </si>
+  <si>
+    <t>20В023</t>
+  </si>
+  <si>
+    <t>20В046</t>
+  </si>
+  <si>
+    <t>19В051</t>
+  </si>
+  <si>
+    <t>Бартоломеева Елизавета Дмитриевна</t>
+  </si>
+  <si>
+    <t>Бражников Андрей Максимович</t>
+  </si>
+  <si>
+    <t>Киселева Елизавета Александровна</t>
+  </si>
+  <si>
+    <t>Колесник Илья Дмитриевич</t>
+  </si>
+  <si>
+    <t>Кудряшова Елизавета Дмитриевна</t>
+  </si>
+  <si>
+    <t>Лукьянова Мария Андреевна</t>
+  </si>
+  <si>
+    <t>Токмакова Мария Константиновна</t>
+  </si>
+  <si>
+    <t>Щербаков Никита Сергеевич</t>
   </si>
 </sst>
 </file>
@@ -669,7 +1455,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -709,6 +1495,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFCFCD8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE6EAED"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEDF1F5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -753,7 +1551,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -825,6 +1623,30 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1110,7 +1932,7 @@
   <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q5" sqref="A1:XFD1048576"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1957,6 +2779,3115 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:14" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>345</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>346</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>347</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>324</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="18" t="s">
+        <v>348</v>
+      </c>
+      <c r="N1" s="18" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N4" s="15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="48.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="N5" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>355</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="N7" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="K9" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="N9" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="48.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L11" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="M11" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="N11" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="48.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>360</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="N13" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="16">
+        <v>13</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>375</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>362</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J14" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="K14" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="M14" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="N14" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:15" ht="96.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="M1" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="N1" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="O1" s="18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="48.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="N3" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="N4" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="N5" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M6" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="N6" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>205</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="N7" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="O7" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M8" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M9" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="N9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="O9" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>208</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M10" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="N10" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M11" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="N11" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="O11" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M12" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="N13" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K14" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="L14" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="M14" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="N14" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="O14" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="48.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="5">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M15" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="N15" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>214</v>
+      </c>
+      <c r="D16" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M16" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="N16" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="O16" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:15" ht="60.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="M1" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="N1" s="18" t="s">
+        <v>376</v>
+      </c>
+      <c r="O1" s="18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>377</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N4" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M5" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N6" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="N7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="O7" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="48.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>383</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N8" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="48.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M9" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="N9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M11" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="N11" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="48.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="16">
+        <v>12</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>400</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>388</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="N13" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="O13" s="19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:15" ht="60.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="M1" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="N1" s="18" t="s">
+        <v>376</v>
+      </c>
+      <c r="O1" s="18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="48.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>402</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>403</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="N4" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="48.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="O5" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M6" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="N7" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="O7" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M8" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="N9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>409</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="48.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>410</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M11" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="N11" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="O11" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>411</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K12" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>412</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="N13" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="O13" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="48.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="16">
+        <v>13</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>413</v>
+      </c>
+      <c r="D14" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N14" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="O14" s="19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:14" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>427</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>428</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>429</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>430</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>431</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>432</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>433</v>
+      </c>
+      <c r="M1" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="N1" s="18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>434</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>435</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" s="21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="48.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N4" s="15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="N5" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>438</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="L6" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N6" s="15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L7" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="N7" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="48.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N8" s="15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="16">
+        <v>8</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>449</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>441</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="M9" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="N9" s="21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -2733,7 +6664,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="49.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -2777,7 +6708,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2821,7 +6752,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="49.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" ht="48.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -2865,7 +6796,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="49.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" ht="48.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2909,7 +6840,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="48.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -2953,7 +6884,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="49.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2997,7 +6928,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="49.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -3041,7 +6972,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="49.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" ht="48.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -3085,7 +7016,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="48.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -3129,7 +7060,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="49.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -3173,7 +7104,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="48.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -3217,7 +7148,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="49.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -3261,7 +7192,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="49.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -3305,7 +7236,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="49.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" ht="48.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="16">
         <v>15</v>
       </c>
@@ -3452,7 +7383,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="48.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -3496,7 +7427,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="48.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -3540,7 +7471,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="48.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -3584,7 +7515,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="49.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3628,7 +7559,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="49.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -3672,7 +7603,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="37.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -3716,7 +7647,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="37.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -3760,7 +7691,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="48.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -3804,7 +7735,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="49.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -3848,7 +7779,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="49.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -3892,7 +7823,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="49.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -3936,7 +7867,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="49.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -3980,7 +7911,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="49.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" ht="48.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -4024,7 +7955,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="48.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -4068,7 +7999,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="49.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="16">
         <v>16</v>
       </c>
@@ -4121,7 +8052,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
@@ -4215,7 +8146,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="49.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" ht="48.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -4259,7 +8190,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="49.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -4303,7 +8234,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="48.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -4342,6 +8273,813 @@
       </c>
       <c r="M5" s="9" t="s">
         <v>13</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="N7" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="48.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="N9" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M11" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="N11" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N12" s="15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L13" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="M13" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="N13" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N14" s="15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="5">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J15" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M15" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="N15" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J16" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="K16" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="L16" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="5">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L17" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="M17" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="N17" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="16">
+        <v>17</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K18" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="L18" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="M18" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:14" ht="108.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="N1" s="18" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="48.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="N5" s="8" t="s">
         <v>16</v>
@@ -4352,10 +9090,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>161</v>
+        <v>242</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>243</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>15</v>
@@ -4363,87 +9101,87 @@
       <c r="E6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="13" t="s">
-        <v>18</v>
+      <c r="F6" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>16</v>
+      <c r="H6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>13</v>
       </c>
       <c r="J6" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L6" s="13" t="s">
-        <v>18</v>
+      <c r="K6" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="M6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="N6" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="48.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N6" s="15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>179</v>
+        <v>244</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>162</v>
+        <v>245</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>18</v>
+      <c r="E7" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>14</v>
+      <c r="G7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="I7" s="8" t="s">
         <v>16</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="L7" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="M7" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="K7" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="N7" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="49.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>163</v>
+        <v>246</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>247</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>15</v>
@@ -4457,37 +9195,37 @@
       <c r="G8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>14</v>
+      <c r="H8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>13</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K8" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="M8" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="49.2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N8" s="15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>164</v>
+        <v>248</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>249</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>15</v>
@@ -4501,8 +9239,8 @@
       <c r="G9" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="7" t="s">
-        <v>16</v>
+      <c r="H9" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="I9" s="8" t="s">
         <v>16</v>
@@ -4511,10 +9249,10 @@
         <v>16</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="L9" s="9" t="s">
-        <v>13</v>
+        <v>16</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="M9" s="9" t="s">
         <v>13</v>
@@ -4523,15 +9261,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="49.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>182</v>
+        <v>250</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>165</v>
+        <v>251</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>15</v>
@@ -4539,43 +9277,43 @@
       <c r="E10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>15</v>
+      <c r="F10" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="13" t="s">
-        <v>18</v>
+      <c r="H10" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J10" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="K10" s="14" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="M10" s="4" t="s">
-        <v>13</v>
+        <v>16</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="49.2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>166</v>
+        <v>252</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>253</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>15</v>
@@ -4583,32 +9321,32 @@
       <c r="E11" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="6" t="s">
-        <v>18</v>
+      <c r="F11" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>14</v>
+      <c r="H11" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K11" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="L11" s="6" t="s">
-        <v>18</v>
+      <c r="L11" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="M11" s="9" t="s">
         <v>13</v>
       </c>
       <c r="N11" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="48.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -4616,10 +9354,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>167</v>
+        <v>254</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>255</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>15</v>
@@ -4633,17 +9371,17 @@
       <c r="G12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>14</v>
+      <c r="H12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="K12" s="15" t="s">
+        <v>13</v>
       </c>
       <c r="L12" s="4" t="s">
         <v>13</v>
@@ -4655,15 +9393,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="37.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>185</v>
+        <v>256</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>168</v>
+        <v>257</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>15</v>
@@ -4677,8 +9415,8 @@
       <c r="G13" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H13" s="9" t="s">
-        <v>13</v>
+      <c r="H13" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="I13" s="8" t="s">
         <v>16</v>
@@ -4689,25 +9427,25 @@
       <c r="K13" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="L13" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="M13" s="9" t="s">
-        <v>13</v>
+      <c r="L13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="N13" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="48.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>186</v>
+        <v>258</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>169</v>
+        <v>259</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>15</v>
@@ -4727,20 +9465,20 @@
       <c r="I14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J14" s="15" t="s">
-        <v>13</v>
+      <c r="J14" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="M14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="N14" s="15" t="s">
-        <v>13</v>
+      <c r="L14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="48.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -4748,10 +9486,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>170</v>
+        <v>260</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>261</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>15</v>
@@ -4765,20 +9503,20 @@
       <c r="G15" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J15" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="K15" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>16</v>
+      <c r="H15" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L15" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="M15" s="9" t="s">
         <v>13</v>
@@ -4787,48 +9525,48 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="48.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>171</v>
+        <v>262</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>263</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H16" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I16" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="J16" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="K16" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="L16" s="13" t="s">
-        <v>18</v>
+      <c r="E16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="M16" s="4" t="s">
         <v>13</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="48.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -4836,10 +9574,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>172</v>
+        <v>264</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>265</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>15</v>
@@ -4856,14 +9594,14 @@
       <c r="H17" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I17" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J17" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="K17" s="8" t="s">
-        <v>16</v>
+      <c r="I17" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="J17" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="K17" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="L17" s="9" t="s">
         <v>13</v>
@@ -4875,48 +9613,1839 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="48.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="16">
+    <row r="18" spans="1:14" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>173</v>
+      <c r="B18" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>267</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="13" t="s">
+      <c r="E18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="16">
+        <v>18</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L19" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="M19" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="N19" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:14" ht="108.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="N1" s="18" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="48.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H18" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K18" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>14</v>
+      <c r="H3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="N5" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="48.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>281</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="N7" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="48.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="N9" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M11" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="N11" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="K12" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N12" s="15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>293</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="K13" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="L13" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="M13" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="N13" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="5">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="K15" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="L15" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="M15" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="N15" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>298</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>299</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="J16" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="K16" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="L16" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="M16" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="N16" s="15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:14" ht="108.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="N1" s="18" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="48.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>303</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="N7" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="N9" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="N11" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="16">
+        <v>11</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>321</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L12" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="M12" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:15" ht="108.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>322</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>323</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>324</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>325</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="N1" s="18" t="s">
+        <v>326</v>
+      </c>
+      <c r="O1" s="18" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>329</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="N4" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="48.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M6" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="N7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="M9" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="N9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="O9" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M10" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
